--- a/AutoServiceAppointments/Config/Settings.xlsx
+++ b/AutoServiceAppointments/Config/Settings.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univ\ANUL IV\Sem 1\RPA\Proiect\proiect-rpa\AutoServiceAppointments\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679BEE3-5883-478F-8050-9482D90A58DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="720" yWindow="5590" windowWidth="18851" windowHeight="9766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Config" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ServiceTypes" sheetId="2" r:id="rId5"/>
+    <sheet name="Config" sheetId="1" r:id="rId1"/>
+    <sheet name="ServiceTypes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Key</t>
   </si>
@@ -20,30 +29,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Mailbox</t>
-  </si>
-  <si>
-    <t>service@firma.ro</t>
-  </si>
-  <si>
-    <t>OutlookFolder</t>
-  </si>
-  <si>
-    <t>Inbox\Programari</t>
-  </si>
-  <si>
-    <t>ProcessedFolder</t>
-  </si>
-  <si>
-    <t>Inbox\Programari\Processed</t>
-  </si>
-  <si>
-    <t>RejectedFolder</t>
-  </si>
-  <si>
-    <t>Inbox\Programari\Rejected</t>
-  </si>
-  <si>
     <t>AppointmentsExcelPath</t>
   </si>
   <si>
@@ -87,22 +72,76 @@
   </si>
   <si>
     <t>Verificare tehnica</t>
+  </si>
+  <si>
+    <t>EmailProvider</t>
+  </si>
+  <si>
+    <t>GMAIL</t>
+  </si>
+  <si>
+    <t>GmailQuery</t>
+  </si>
+  <si>
+    <t>label:programari is:unread</t>
+  </si>
+  <si>
+    <t>GmailLabelToRead</t>
+  </si>
+  <si>
+    <t>programari</t>
+  </si>
+  <si>
+    <t>ProcessedLabel</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>RejectedLabel</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>MarkAsRead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,40 +150,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -334,24 +379,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.63"/>
-    <col customWidth="1" min="2" max="2" width="32.5"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -359,137 +409,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.13"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AutoServiceAppointments/Config/Settings.xlsx
+++ b/AutoServiceAppointments/Config/Settings.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama\Desktop\RPA2.0\RPA_AutoServiceAppointments\AutoServiceAppointments\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD68A5BA-D14C-4591-A74D-27F726323E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Config" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ServiceTypes" sheetId="2" r:id="rId5"/>
+    <sheet name="Config" sheetId="1" r:id="rId1"/>
+    <sheet name="ServiceTypes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -92,15 +101,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -111,40 +121,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -334,24 +347,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.63"/>
-    <col customWidth="1" min="2" max="2" width="32.5"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -359,7 +375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -367,7 +383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -375,7 +391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -383,7 +399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -391,7 +407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -399,7 +415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -407,7 +423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -415,15 +431,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -432,24 +448,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.13"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -457,39 +474,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AutoServiceAppointments/Config/Settings.xlsx
+++ b/AutoServiceAppointments/Config/Settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univ\ANUL IV\Sem 1\RPA\Proiect\proiect-rpa\AutoServiceAppointments\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679BEE3-5883-478F-8050-9482D90A58DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF09F58-5C2D-4258-A245-3E88516B2756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="5590" windowWidth="18851" windowHeight="9766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22032" yWindow="6140" windowWidth="18851" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>PdfOutputFolder</t>
   </si>
   <si>
-    <t>Output\FisePDF\</t>
-  </si>
-  <si>
     <t>DocxTemplatePath</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>MarkAsRead</t>
+  </si>
+  <si>
+    <t>Output\PDF\</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -411,47 +411,47 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="b">
         <v>1</v>
@@ -470,20 +470,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -518,15 +518,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>120</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
